--- a/rider/monthly/2015_12.xlsx
+++ b/rider/monthly/2015_12.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CTR-External (6040)\CMAQ12-13 (6085)\go\reports\rider\monthly\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Ridership" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -145,8 +150,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,12 +188,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -207,11 +230,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -425,6 +451,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -568,7 +595,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.27</c:v>
+                  <c:v>35.270000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>37.21</c:v>
@@ -577,10 +604,10 @@
                   <c:v>35.71</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.62</c:v>
+                  <c:v>32.619999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.58</c:v>
+                  <c:v>19.579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>16.46</c:v>
@@ -589,19 +616,19 @@
                   <c:v>33.14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.12</c:v>
+                  <c:v>36.119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>42.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39.2</c:v>
+                  <c:v>39.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>34.36</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.08</c:v>
+                  <c:v>20.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>19.36</c:v>
@@ -610,7 +637,7 @@
                   <c:v>33.67</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35.59</c:v>
+                  <c:v>35.590000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>41.56</c:v>
@@ -631,14 +658,15 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40.59</c:v>
+                  <c:v>40.590000000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>37.41</c:v>
+                  <c:v>37.409999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -764,7 +792,7 @@
                   <c:v>34.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.41</c:v>
+                  <c:v>34.409999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>34.58</c:v>
@@ -782,7 +810,7 @@
                   <c:v>35.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.38</c:v>
+                  <c:v>35.380000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>35.54</c:v>
@@ -791,7 +819,7 @@
                   <c:v>35.71</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.87</c:v>
+                  <c:v>35.869999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>36.03</c:v>
@@ -809,19 +837,19 @@
                   <c:v>36.67</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36.84</c:v>
+                  <c:v>36.840000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37.16</c:v>
+                  <c:v>37.159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>37.32</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37.48</c:v>
+                  <c:v>37.479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>37.64</c:v>
@@ -836,13 +864,13 @@
                   <c:v>38.29</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>38.45</c:v>
+                  <c:v>38.450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>38.61</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>38.77</c:v>
+                  <c:v>38.770000000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>38.94</c:v>
@@ -853,16 +881,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="283480256"/>
+        <c:axId val="283481432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50010001"/>
+        <c:axId val="283480256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -881,19 +919,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010002"/>
+        <c:crossAx val="283481432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50010002"/>
+        <c:axId val="283481432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -913,10 +957,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
+        <c:crossAx val="283480256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -924,8 +971,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1013,7 +1063,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1045,9 +1095,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1079,6 +1130,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1254,21 +1306,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="1" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1302,7 +1352,7 @@
         <v>34.25</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1316,10 +1366,10 @@
         <v>36.46</v>
       </c>
       <c r="E3">
-        <v>34.41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>34.409999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1336,7 +1386,7 @@
         <v>34.58</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1353,7 +1403,7 @@
         <v>34.74</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1370,7 +1420,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1387,7 +1437,7 @@
         <v>35.06</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1404,7 +1454,7 @@
         <v>35.22</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1415,13 +1465,13 @@
         <v>48</v>
       </c>
       <c r="D9">
-        <v>35.27</v>
+        <v>35.270000000000003</v>
       </c>
       <c r="E9">
-        <v>35.38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>35.380000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1438,7 +1488,7 @@
         <v>35.54</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1455,7 +1505,7 @@
         <v>35.71</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1466,13 +1516,13 @@
         <v>57</v>
       </c>
       <c r="D12">
-        <v>32.62</v>
+        <v>32.619999999999997</v>
       </c>
       <c r="E12">
-        <v>35.87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>35.869999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1483,13 +1533,13 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>19.58</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="E13">
         <v>36.03</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1506,7 +1556,7 @@
         <v>36.19</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1523,7 +1573,7 @@
         <v>36.35</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1534,13 +1584,13 @@
         <v>49</v>
       </c>
       <c r="D16">
-        <v>36.12</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="E16">
         <v>36.51</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1557,7 +1607,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1568,13 +1618,13 @@
         <v>88</v>
       </c>
       <c r="D18">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="E18">
-        <v>36.84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>36.840000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1591,7 +1641,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1602,13 +1652,13 @@
         <v>26</v>
       </c>
       <c r="D20">
-        <v>20.08</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="E20">
-        <v>37.16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>37.159999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1625,7 +1675,7 @@
         <v>37.32</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1639,10 +1689,10 @@
         <v>33.67</v>
       </c>
       <c r="E22">
-        <v>37.48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>37.479999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1653,13 +1703,13 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>35.59</v>
+        <v>35.590000000000003</v>
       </c>
       <c r="E23">
         <v>37.64</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1676,7 +1726,7 @@
         <v>37.81</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1693,7 +1743,7 @@
         <v>37.97</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1710,7 +1760,7 @@
         <v>38.29</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1724,10 +1774,10 @@
         <v>18.73</v>
       </c>
       <c r="E27">
-        <v>38.45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>38.450000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1744,7 +1794,7 @@
         <v>38.61</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1758,10 +1808,10 @@
         <v>35</v>
       </c>
       <c r="E29">
-        <v>38.77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>38.770000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1772,13 +1822,13 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <v>40.59</v>
+        <v>40.590000000000003</v>
       </c>
       <c r="E30">
         <v>38.94</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1789,10 +1839,16 @@
         <v>29</v>
       </c>
       <c r="D31">
-        <v>37.41</v>
+        <v>37.409999999999997</v>
       </c>
       <c r="E31">
         <v>39.1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <f>SUM(C2:C31)</f>
+        <v>1211</v>
       </c>
     </row>
   </sheetData>
